--- a/AAII_Financials/Quarterly/ARHS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARHS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
   <si>
     <t>ARHS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,96 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>203300</v>
+      </c>
+      <c r="E8" s="3">
         <v>184000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>171300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>162800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>120500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>103400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>120700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>133800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
+      <c r="D9" s="3">
+        <v>118500</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -770,13 +777,16 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
+      <c r="D10" s="3">
+        <v>84800</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>5</v>
@@ -799,8 +809,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,8 +825,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,8 +855,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +887,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +919,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +951,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,66 +964,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
+        <v>186700</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>184000</v>
-      </c>
-      <c r="E18" s="3">
-        <v>171300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>162800</v>
-      </c>
-      <c r="G18" s="3">
-        <v>120500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>103400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>120700</v>
-      </c>
-      <c r="J18" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
         <v>133800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,54 +1042,58 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-182700</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-170000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-159600</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-117800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-99800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-117700</v>
-      </c>
-      <c r="J20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K20" s="3">
         <v>-130800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-121600</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>24500</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="3">
-        <v>20200</v>
+      <c r="F21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>12000</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
@@ -1067,8 +1104,11 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1079,54 +1119,60 @@
         <v>1300</v>
       </c>
       <c r="F22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G22" s="3">
         <v>3200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3000</v>
       </c>
       <c r="J22" s="3">
         <v>3000</v>
       </c>
       <c r="K22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
+        <v>14900</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1134,16 +1180,16 @@
         <v>500</v>
       </c>
       <c r="E24" s="3">
+        <v>500</v>
+      </c>
+      <c r="F24" s="3">
         <v>700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
@@ -1152,10 +1198,13 @@
         <v>100</v>
       </c>
       <c r="K24" s="3">
+        <v>100</v>
+      </c>
+      <c r="L24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,66 +1232,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
+        <v>14400</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
+        <v>14400</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1328,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1360,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1392,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,66 +1424,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>182700</v>
-      </c>
-      <c r="E32" s="3">
-        <v>170000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>159600</v>
-      </c>
-      <c r="G32" s="3">
-        <v>117800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>99800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>117700</v>
-      </c>
-      <c r="J32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K32" s="3">
         <v>130800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
+        <v>14400</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,71 +1520,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
+        <v>14400</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1605,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,17 +1619,18 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>149200</v>
+      </c>
+      <c r="E41" s="3">
         <v>132900</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
       </c>
@@ -1562,8 +1649,11 @@
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,17 +1681,20 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1620,17 +1713,20 @@
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>170600</v>
+      </c>
+      <c r="E44" s="3">
         <v>136100</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1649,17 +1745,20 @@
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>26300</v>
+      </c>
+      <c r="E45" s="3">
         <v>21700</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F45" s="3" t="s">
         <v>5</v>
       </c>
@@ -1678,17 +1777,20 @@
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>346400</v>
+      </c>
+      <c r="E46" s="3">
         <v>291300</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F46" s="3" t="s">
         <v>5</v>
       </c>
@@ -1707,8 +1809,11 @@
       <c r="K46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,17 +1841,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E48" s="3">
         <v>123600</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1765,16 +1873,19 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>11000</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+      <c r="E49" s="3">
+        <v>11000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
@@ -1794,8 +1905,11 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +1937,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,17 +1969,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
       </c>
@@ -1881,8 +2001,11 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,17 +2033,20 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>495300</v>
+      </c>
+      <c r="E54" s="3">
         <v>426800</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F54" s="3" t="s">
         <v>5</v>
       </c>
@@ -1939,8 +2065,11 @@
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2081,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,17 +2095,18 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E57" s="3">
         <v>30000</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
       </c>
@@ -1994,17 +2125,20 @@
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2023,17 +2157,20 @@
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>306400</v>
+      </c>
+      <c r="E59" s="3">
         <v>259000</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2052,17 +2189,20 @@
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>336700</v>
+      </c>
+      <c r="E60" s="3">
         <v>289200</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F60" s="3" t="s">
         <v>5</v>
       </c>
@@ -2081,17 +2221,20 @@
       <c r="K60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E61" s="3">
         <v>47800</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2110,17 +2253,20 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>127800</v>
+      </c>
+      <c r="E62" s="3">
         <v>124800</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2139,8 +2285,11 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2317,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2349,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,17 +2381,20 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>515100</v>
+      </c>
+      <c r="E66" s="3">
         <v>461700</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2255,8 +2413,11 @@
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2429,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2459,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2491,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2523,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,17 +2555,20 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-22700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-37000</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2413,8 +2587,11 @@
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2619,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2651,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,17 +2683,20 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-34900</v>
       </c>
-      <c r="E76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F76" s="3" t="s">
         <v>5</v>
       </c>
@@ -2529,8 +2715,11 @@
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,71 +2747,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
-      </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
+        <v>14400</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,23 +2832,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>5</v>
+      <c r="D83" s="3">
+        <v>8300</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F83" s="3">
+      <c r="F83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="3">
         <v>17000</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
@@ -2663,8 +2862,11 @@
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +2894,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +2926,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +2958,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +2990,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,23 +3022,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>31800</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3">
         <v>150400</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
@@ -2837,8 +3054,11 @@
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,23 +3070,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-15800</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
         <v>-13000</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
@@ -2879,8 +3100,11 @@
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3132,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,23 +3164,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>-15800</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3">
         <v>-13000</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
@@ -2966,8 +3196,11 @@
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3212,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3242,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3274,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3306,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,23 +3338,26 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
         <v>-98300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
@@ -3124,8 +3370,11 @@
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,23 +3402,26 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>16000</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F102" s="3">
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3">
         <v>39100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
@@ -3180,6 +3432,9 @@
         <v>5</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARHS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARHS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="92">
   <si>
     <t>ARHS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,103 +665,116 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>246300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>238200</v>
+      </c>
+      <c r="F8" s="3">
         <v>203300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>184000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>171300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>162800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>120500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>103400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>120700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>133800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>148600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>141300</v>
+      </c>
+      <c r="F9" s="3">
         <v>118500</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>5</v>
       </c>
@@ -780,20 +793,26 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>97700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>96900</v>
+      </c>
+      <c r="F10" s="3">
         <v>84800</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>5</v>
       </c>
@@ -812,8 +831,14 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,8 +851,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -858,8 +885,14 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,31 +923,37 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1500</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -922,31 +961,37 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -954,8 +999,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -965,20 +1016,22 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>223400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>242600</v>
+      </c>
+      <c r="F17" s="3">
         <v>186700</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G17" s="3" t="s">
         <v>5</v>
       </c>
@@ -991,26 +1044,32 @@
       <c r="J17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F18" s="3">
         <v>16600</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1023,14 +1082,20 @@
       <c r="J18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M18" s="3">
         <v>133800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1043,20 +1108,22 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1069,26 +1136,32 @@
       <c r="J20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="3">
         <v>-130800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-121600</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>24500</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1107,8 +1180,14 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1116,43 +1195,49 @@
         <v>1300</v>
       </c>
       <c r="E22" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F22" s="3">
         <v>1300</v>
       </c>
       <c r="G22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I22" s="3">
         <v>3200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>3000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>3000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F23" s="3">
         <v>14900</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G23" s="3" t="s">
         <v>5</v>
       </c>
@@ -1165,46 +1250,58 @@
       <c r="J23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="F24" s="3">
         <v>500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>500</v>
-      </c>
-      <c r="F24" s="3">
-        <v>700</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-100</v>
       </c>
       <c r="H24" s="3">
         <v>700</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J24" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="K24" s="3">
         <v>100</v>
       </c>
       <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
+        <v>100</v>
+      </c>
+      <c r="N24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1235,20 +1332,26 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F26" s="3">
         <v>14400</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1261,26 +1364,32 @@
       <c r="J26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F27" s="3">
         <v>14400</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1293,14 +1402,20 @@
       <c r="J27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1331,8 +1446,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1363,8 +1484,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1395,8 +1522,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1427,20 +1560,26 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1453,26 +1592,32 @@
       <c r="J32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M32" s="3">
         <v>130800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F33" s="3">
         <v>14400</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1485,14 +1630,20 @@
       <c r="J33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1523,20 +1674,26 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F35" s="3">
         <v>14400</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G35" s="3" t="s">
         <v>5</v>
       </c>
@@ -1549,51 +1706,63 @@
       <c r="J35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1606,8 +1775,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1620,23 +1791,25 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>148800</v>
+      </c>
+      <c r="E41" s="3">
+        <v>123800</v>
+      </c>
+      <c r="F41" s="3">
         <v>149200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>132900</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>5</v>
       </c>
@@ -1652,8 +1825,14 @@
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1684,23 +1863,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>200</v>
+      </c>
+      <c r="F43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1716,23 +1901,29 @@
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>246500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>208300</v>
+      </c>
+      <c r="F44" s="3">
         <v>170600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>136100</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1748,23 +1939,29 @@
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>38100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>35600</v>
+      </c>
+      <c r="F45" s="3">
         <v>26300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>21700</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>5</v>
       </c>
@@ -1780,23 +1977,29 @@
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>435100</v>
+      </c>
+      <c r="E46" s="3">
+        <v>368000</v>
+      </c>
+      <c r="F46" s="3">
         <v>346400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>291300</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>5</v>
       </c>
@@ -1812,8 +2015,14 @@
       <c r="L46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1844,23 +2053,29 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>342600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>179600</v>
+      </c>
+      <c r="F48" s="3">
         <v>137000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>123600</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
@@ -1876,8 +2091,14 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1887,11 +2108,11 @@
       <c r="E49" s="3">
         <v>11000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
+      <c r="F49" s="3">
+        <v>11000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>11000</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
@@ -1908,8 +2129,14 @@
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1940,8 +2167,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1972,23 +2205,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2004,8 +2243,14 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2036,23 +2281,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>814200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>586600</v>
+      </c>
+      <c r="F54" s="3">
         <v>495300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>426800</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2068,8 +2319,14 @@
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2082,8 +2339,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2096,23 +2355,25 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>51400</v>
+      </c>
+      <c r="F57" s="3">
         <v>30400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>30000</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2128,22 +2389,28 @@
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E58" s="3">
+      <c r="D58" s="3">
         <v>200</v>
       </c>
+      <c r="E58" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
+      <c r="G58" s="3">
+        <v>200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
@@ -2160,23 +2427,29 @@
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>390500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>349800</v>
+      </c>
+      <c r="F59" s="3">
         <v>306400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>259000</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2192,23 +2465,29 @@
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>444900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>401200</v>
+      </c>
+      <c r="F60" s="3">
         <v>336700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>289200</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>5</v>
       </c>
@@ -2224,23 +2503,29 @@
       <c r="L60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>50500</v>
+      </c>
+      <c r="F61" s="3">
         <v>50600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>47800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2256,23 +2541,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>232400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>65000</v>
+      </c>
+      <c r="F62" s="3">
         <v>127800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>124800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2288,8 +2579,14 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2320,8 +2617,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2352,8 +2655,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2384,23 +2693,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>727600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>516800</v>
+      </c>
+      <c r="F66" s="3">
         <v>515100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>461700</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2416,8 +2731,14 @@
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2430,8 +2751,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2462,8 +2785,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2494,8 +2823,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2526,8 +2861,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2558,23 +2899,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-100500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-116600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-22700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-37000</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2590,8 +2937,14 @@
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2622,8 +2975,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2654,8 +3013,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2686,23 +3051,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86500</v>
+      </c>
+      <c r="E76" s="3">
+        <v>69800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-19800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-34900</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>5</v>
       </c>
@@ -2718,8 +3089,14 @@
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2750,57 +3127,69 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="F81" s="3">
         <v>14400</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G81" s="3" t="s">
         <v>5</v>
       </c>
@@ -2813,14 +3202,20 @@
       <c r="J81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2833,29 +3228,31 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F83" s="3">
         <v>8300</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G83" s="3">
+      <c r="G83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I83" s="3">
         <v>17000</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
@@ -2865,8 +3262,14 @@
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2897,8 +3300,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2929,8 +3338,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2961,8 +3376,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2993,8 +3414,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3025,29 +3452,35 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F89" s="3">
         <v>31800</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3">
         <v>150400</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3057,8 +3490,14 @@
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3071,29 +3510,31 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-15800</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
         <v>-13000</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3103,8 +3544,14 @@
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3135,8 +3582,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3167,29 +3620,35 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15800</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3">
         <v>-13000</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3199,8 +3658,14 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3213,8 +3678,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3245,8 +3712,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3277,8 +3750,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3309,8 +3788,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3341,29 +3826,35 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3">
+      <c r="E100" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3">
         <v>-98300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
@@ -3373,8 +3864,14 @@
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3405,29 +3902,35 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>25100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="F102" s="3">
         <v>16000</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3">
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3">
         <v>39100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
@@ -3435,6 +3938,12 @@
         <v>5</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARHS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARHS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
   <si>
     <t>ARHS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,126 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>306300</v>
+      </c>
+      <c r="E8" s="3">
         <v>246300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>238200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>203300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>184000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>171300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>162800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>120500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>103400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>120700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>133800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>173200</v>
+      </c>
+      <c r="E9" s="3">
         <v>148600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>141300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>118500</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>5</v>
       </c>
@@ -799,23 +806,26 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>133100</v>
+      </c>
+      <c r="E10" s="3">
         <v>97700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>96900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>84800</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>5</v>
       </c>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,8 +866,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,20 +946,23 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
         <v>1500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
@@ -955,8 +975,8 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -967,16 +987,19 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>500</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
+      <c r="E15" s="3">
+        <v>500</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>5</v>
@@ -993,8 +1016,8 @@
       <c r="J15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,23 +1044,24 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>256000</v>
+      </c>
+      <c r="E17" s="3">
         <v>223400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>242600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>186700</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1050,29 +1077,32 @@
       <c r="L17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
+      <c r="M17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E18" s="3">
         <v>22900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16600</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1088,14 +1118,17 @@
       <c r="L18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N18" s="3">
         <v>133800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,23 +1143,24 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E20" s="3">
         <v>400</v>
       </c>
       <c r="F20" s="3">
+        <v>400</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1142,29 +1176,32 @@
       <c r="L20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N20" s="3">
         <v>-130800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-121600</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>56500</v>
+      </c>
+      <c r="E21" s="3">
         <v>29100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>24500</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1186,8 +1223,11 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1195,10 +1235,10 @@
         <v>1300</v>
       </c>
       <c r="E22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F22" s="3">
         <v>1400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1300</v>
       </c>
       <c r="G22" s="3">
         <v>1300</v>
@@ -1207,40 +1247,43 @@
         <v>1300</v>
       </c>
       <c r="I22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J22" s="3">
         <v>3200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3000</v>
       </c>
       <c r="M22" s="3">
         <v>3000</v>
       </c>
       <c r="N22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>49100</v>
+      </c>
+      <c r="E23" s="3">
         <v>21900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14900</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>5</v>
       </c>
@@ -1256,40 +1299,43 @@
       <c r="L23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
+      <c r="M23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E24" s="3">
         <v>5900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-11800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>500</v>
       </c>
       <c r="G24" s="3">
         <v>500</v>
       </c>
       <c r="H24" s="3">
+        <v>500</v>
+      </c>
+      <c r="I24" s="3">
         <v>700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>700</v>
-      </c>
-      <c r="K24" s="3">
-        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>100</v>
@@ -1298,10 +1344,13 @@
         <v>100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,23 +1387,26 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E26" s="3">
         <v>16100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>6400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>14400</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1370,29 +1422,32 @@
       <c r="L26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
+      <c r="M26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E27" s="3">
         <v>16100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>14400</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1408,14 +1463,17 @@
       <c r="L27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
+      <c r="M27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,23 +1633,26 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="E32" s="3">
         <v>-400</v>
       </c>
       <c r="F32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1598,29 +1668,32 @@
       <c r="L32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N32" s="3">
         <v>130800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E33" s="3">
         <v>16100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>14400</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1636,14 +1709,17 @@
       <c r="L33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
+      <c r="M33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,23 +1756,26 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E35" s="3">
         <v>16100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>14400</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>5</v>
       </c>
@@ -1712,57 +1791,63 @@
       <c r="L35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
+      <c r="M35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,26 +1879,27 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>144600</v>
+      </c>
+      <c r="E41" s="3">
         <v>148800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>123800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>149200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>132900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>5</v>
       </c>
@@ -1831,8 +1918,11 @@
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,26 +1959,29 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>5</v>
       </c>
@@ -1907,26 +2000,29 @@
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>272500</v>
+      </c>
+      <c r="E44" s="3">
         <v>246500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>208300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>170600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>136100</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>5</v>
       </c>
@@ -1945,26 +2041,29 @@
       <c r="N44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E45" s="3">
         <v>38100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>26300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21700</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>5</v>
       </c>
@@ -1983,26 +2082,29 @@
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>455100</v>
+      </c>
+      <c r="E46" s="3">
         <v>435100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>368000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>346400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>291300</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2021,8 +2123,11 @@
       <c r="N46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2059,26 +2164,29 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>387900</v>
+      </c>
+      <c r="E48" s="3">
         <v>342600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>179600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>137000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>123600</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2097,8 +2205,11 @@
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2114,8 +2225,8 @@
       <c r="G49" s="3">
         <v>11000</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
+      <c r="H49" s="3">
+        <v>11000</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,26 +2328,29 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E52" s="3">
         <v>25500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>28000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,26 +2410,29 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>877000</v>
+      </c>
+      <c r="E54" s="3">
         <v>814200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>586600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>495300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>426800</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2325,8 +2451,11 @@
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,26 +2487,27 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>62300</v>
+      </c>
+      <c r="E57" s="3">
         <v>54200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>51400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>30400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>30000</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2395,26 +2526,29 @@
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2433,26 +2567,29 @@
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>363800</v>
+      </c>
+      <c r="E59" s="3">
         <v>390500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>349800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>306400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>259000</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2471,26 +2608,29 @@
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>426700</v>
+      </c>
+      <c r="E60" s="3">
         <v>444900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>401200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>336700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>289200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>5</v>
       </c>
@@ -2509,26 +2649,29 @@
       <c r="N60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>52000</v>
+      </c>
+      <c r="E61" s="3">
         <v>50300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>50500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>50600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>47800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2547,26 +2690,29 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>274500</v>
+      </c>
+      <c r="E62" s="3">
         <v>232400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>65000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>127800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>124800</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,26 +2854,29 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>753100</v>
+      </c>
+      <c r="E66" s="3">
         <v>727600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>516800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>515100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>461700</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2737,8 +2895,11 @@
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,26 +3076,29 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-63900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-100500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-116600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-22700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-37000</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>5</v>
       </c>
@@ -2943,8 +3117,11 @@
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,26 +3240,29 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>123900</v>
+      </c>
+      <c r="E76" s="3">
         <v>86500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>69800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-19800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-34900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3095,8 +3281,11 @@
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,66 +3322,72 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E81" s="3">
         <v>16100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>14400</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>5</v>
       </c>
@@ -3208,14 +3403,17 @@
       <c r="L81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
+      <c r="M81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,32 +3428,33 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E83" s="3">
         <v>5900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>8300</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J83" s="3">
         <v>17000</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,32 +3672,35 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E89" s="3">
         <v>35200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>31800</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3">
         <v>150400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3496,8 +3713,11 @@
       <c r="N89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3521,23 +3742,23 @@
         <v>-10200</v>
       </c>
       <c r="E91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-18300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15800</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3">
         <v>-13000</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3635,23 +3865,23 @@
         <v>-10200</v>
       </c>
       <c r="E94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-18300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15800</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I94" s="3">
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3">
         <v>-13000</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,8 +4075,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3841,23 +4087,23 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-15900</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3">
         <v>-98300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
@@ -3870,8 +4116,11 @@
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,32 +4157,35 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E102" s="3">
         <v>25100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-30600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>16000</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I102" s="3">
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3">
         <v>39100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
       </c>
@@ -3944,6 +4196,9 @@
         <v>5</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARHS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARHS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
   <si>
     <t>ARHS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,129 +665,136 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>320000</v>
+      </c>
+      <c r="E8" s="3">
         <v>306300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>246300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>238200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>203300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>184000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>171300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>162800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>120500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>103400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>120700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>133800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>183700</v>
+      </c>
+      <c r="E9" s="3">
         <v>173200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>148600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>141300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>118500</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>5</v>
       </c>
@@ -809,26 +816,29 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>136300</v>
+      </c>
+      <c r="E10" s="3">
         <v>133100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>97700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>96900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>84800</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>5</v>
       </c>
@@ -850,8 +860,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,8 +880,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -908,8 +922,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +966,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -960,12 +980,12 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
         <v>1500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
@@ -978,8 +998,8 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -990,8 +1010,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1001,8 +1024,8 @@
       <c r="E15" s="3">
         <v>500</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>5</v>
+      <c r="F15" s="3">
+        <v>500</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>5</v>
@@ -1019,8 +1042,8 @@
       <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1031,8 +1054,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,26 +1071,27 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>272900</v>
+      </c>
+      <c r="E17" s="3">
         <v>256000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>223400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>242600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>186700</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1080,32 +1107,35 @@
       <c r="M17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
+      <c r="N17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>47100</v>
+      </c>
+      <c r="E18" s="3">
         <v>50300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16600</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1121,14 +1151,17 @@
       <c r="M18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O18" s="3">
         <v>133800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,26 +1177,27 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
-      </c>
-      <c r="E20" s="3">
-        <v>400</v>
       </c>
       <c r="F20" s="3">
         <v>400</v>
       </c>
       <c r="G20" s="3">
+        <v>400</v>
+      </c>
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1179,32 +1213,35 @@
       <c r="M20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O20" s="3">
         <v>-130800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-121600</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E21" s="3">
         <v>56500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>29100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>2600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>24500</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1226,8 +1263,11 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1238,10 +1278,10 @@
         <v>1300</v>
       </c>
       <c r="F22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G22" s="3">
         <v>1400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1300</v>
       </c>
       <c r="H22" s="3">
         <v>1300</v>
@@ -1250,43 +1290,46 @@
         <v>1300</v>
       </c>
       <c r="J22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K22" s="3">
         <v>3200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3600</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3000</v>
       </c>
       <c r="N22" s="3">
         <v>3000</v>
       </c>
       <c r="O22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>46500</v>
+      </c>
+      <c r="E23" s="3">
         <v>49100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>21900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14900</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>5</v>
       </c>
@@ -1302,43 +1345,46 @@
       <c r="M23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
+      <c r="N23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E24" s="3">
         <v>12400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-11800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>500</v>
       </c>
       <c r="H24" s="3">
         <v>500</v>
       </c>
       <c r="I24" s="3">
+        <v>500</v>
+      </c>
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>100</v>
@@ -1347,10 +1393,13 @@
         <v>100</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,26 +1439,29 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E26" s="3">
         <v>36600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14400</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1425,32 +1477,35 @@
       <c r="M26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
+      <c r="N26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E27" s="3">
         <v>36600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14400</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1466,14 +1521,17 @@
       <c r="M27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
+      <c r="N27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1571,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1615,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1659,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,26 +1703,29 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-400</v>
       </c>
       <c r="F32" s="3">
         <v>-400</v>
       </c>
       <c r="G32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1671,32 +1741,35 @@
       <c r="M32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O32" s="3">
         <v>130800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E33" s="3">
         <v>36600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14400</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1712,14 +1785,17 @@
       <c r="M33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
+      <c r="N33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,26 +1835,29 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E35" s="3">
         <v>36600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14400</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>5</v>
       </c>
@@ -1794,60 +1873,66 @@
       <c r="M35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
+      <c r="N35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +1948,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,29 +1966,30 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>145700</v>
+      </c>
+      <c r="E41" s="3">
         <v>144600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>148800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>123800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>149200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>132900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>5</v>
       </c>
@@ -1921,8 +2008,11 @@
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,29 +2052,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="3">
         <v>1500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2003,29 +2096,32 @@
       <c r="O43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>292600</v>
+      </c>
+      <c r="E44" s="3">
         <v>272500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>246500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>208300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>170600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>136100</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2044,29 +2140,32 @@
       <c r="O44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>42200</v>
+      </c>
+      <c r="E45" s="3">
         <v>36500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>35600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>26300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21700</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2085,29 +2184,32 @@
       <c r="O45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>482300</v>
+      </c>
+      <c r="E46" s="3">
         <v>455100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>435100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>368000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>346400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>291300</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2126,8 +2228,11 @@
       <c r="O46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2167,29 +2272,32 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>392800</v>
+      </c>
+      <c r="E48" s="3">
         <v>387900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>342600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>179600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>137000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>123600</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2208,8 +2316,11 @@
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2228,8 +2339,8 @@
       <c r="H49" s="3">
         <v>11000</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
+      <c r="I49" s="3">
+        <v>11000</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
@@ -2249,8 +2360,11 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2404,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,29 +2448,32 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E52" s="3">
         <v>23100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>25500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>28000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2372,8 +2492,11 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,29 +2536,32 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>907200</v>
+      </c>
+      <c r="E54" s="3">
         <v>877000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>814200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>586600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>495300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>426800</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2454,8 +2580,11 @@
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2600,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,29 +2618,30 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>58500</v>
+      </c>
+      <c r="E57" s="3">
         <v>62300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>54200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>51400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>30400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30000</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2529,8 +2660,11 @@
       <c r="O57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2538,20 +2672,20 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2570,29 +2704,32 @@
       <c r="O58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>365000</v>
+      </c>
+      <c r="E59" s="3">
         <v>363800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>390500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>349800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>306400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>259000</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2611,29 +2748,32 @@
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>424000</v>
+      </c>
+      <c r="E60" s="3">
         <v>426700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>444900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>401200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>336700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>289200</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>5</v>
       </c>
@@ -2652,29 +2792,32 @@
       <c r="O60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E61" s="3">
         <v>52000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>50300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>50500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>50600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>47800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2693,29 +2836,32 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>270500</v>
+      </c>
+      <c r="E62" s="3">
         <v>274500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>232400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>65000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>127800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>124800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2734,8 +2880,11 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +2924,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +2968,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,29 +3012,32 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>746400</v>
+      </c>
+      <c r="E66" s="3">
         <v>753100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>727600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>516800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>515100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>461700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>5</v>
       </c>
@@ -2898,8 +3056,11 @@
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3076,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3118,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3162,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3206,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,29 +3250,32 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-26900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-63900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-100500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-116600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-22700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-37000</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3120,8 +3294,11 @@
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3338,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3382,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,29 +3426,32 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>160800</v>
+      </c>
+      <c r="E76" s="3">
         <v>123900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>86500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>69800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-19800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-34900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3284,8 +3470,11 @@
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,72 +3514,78 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E81" s="3">
         <v>36600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14400</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>5</v>
       </c>
@@ -3406,14 +3601,17 @@
       <c r="M81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
+      <c r="N81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,35 +3627,36 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E83" s="3">
         <v>6100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>8300</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3">
         <v>17000</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
@@ -3470,8 +3669,11 @@
       <c r="O83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3713,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3757,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +3801,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +3845,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,35 +3889,38 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E89" s="3">
         <v>5900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>35200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>31800</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
         <v>150400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3716,8 +3933,11 @@
       <c r="O89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,35 +3953,36 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-10200</v>
+        <v>-16600</v>
       </c>
       <c r="E91" s="3">
         <v>-10200</v>
       </c>
       <c r="F91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-18300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15800</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-13000</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3774,8 +3995,11 @@
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4039,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,35 +4083,38 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-10200</v>
+        <v>-16600</v>
       </c>
       <c r="E94" s="3">
         <v>-10200</v>
       </c>
       <c r="F94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-18300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15800</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
         <v>-13000</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
@@ -3897,8 +4127,11 @@
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4147,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4189,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4233,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4277,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,35 +4321,38 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-15900</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
+      <c r="H100" s="3">
+        <v>0</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
         <v>-98300</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
@@ -4119,8 +4365,11 @@
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,35 +4409,38 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>25100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-30600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16000</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
         <v>39100</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
@@ -4199,6 +4451,9 @@
         <v>5</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARHS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARHS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
   <si>
     <t>ARHS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,145 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>356300</v>
+      </c>
+      <c r="E8" s="3">
         <v>320000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>306300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>246300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>238200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>203300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>184000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>171300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>162800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>120500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>103400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>120700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>133800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>198300</v>
+      </c>
+      <c r="E9" s="3">
         <v>183700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>173200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>148600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>141300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>118500</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>5</v>
       </c>
@@ -819,29 +825,32 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E10" s="3">
         <v>136300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>133100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>97700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>96900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>84800</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>5</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,13 +985,16 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>5</v>
@@ -983,12 +1002,12 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" s="3">
         <v>1500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1001,8 +1020,8 @@
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1027,8 +1049,8 @@
       <c r="F15" s="3">
         <v>500</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>5</v>
+      <c r="G15" s="3">
+        <v>500</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -1045,8 +1067,8 @@
       <c r="L15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1057,8 +1079,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,29 +1097,30 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>291900</v>
+      </c>
+      <c r="E17" s="3">
         <v>272900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>256000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>223400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>242600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>186700</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1110,35 +1136,38 @@
       <c r="N17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
+      <c r="O17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E18" s="3">
         <v>47100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>50300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16600</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1154,14 +1183,17 @@
       <c r="N18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P18" s="3">
         <v>133800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1210,9 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1190,17 +1223,17 @@
         <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>400</v>
       </c>
       <c r="H20" s="3">
+        <v>400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1216,35 +1249,38 @@
       <c r="N20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P20" s="3">
         <v>-130800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-121600</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>54100</v>
+        <v>71700</v>
       </c>
       <c r="E21" s="3">
+        <v>53600</v>
+      </c>
+      <c r="F21" s="3">
         <v>56500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>24500</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1266,25 +1302,28 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="F22" s="3">
         <v>1300</v>
       </c>
       <c r="G22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H22" s="3">
         <v>1400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1300</v>
       </c>
       <c r="I22" s="3">
         <v>1300</v>
@@ -1293,46 +1332,49 @@
         <v>1300</v>
       </c>
       <c r="K22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L22" s="3">
         <v>3200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>3000</v>
       </c>
       <c r="O22" s="3">
         <v>3000</v>
       </c>
       <c r="P22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E23" s="3">
         <v>46500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>49100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>21900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>14900</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>5</v>
       </c>
@@ -1348,46 +1390,49 @@
       <c r="N23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
+      <c r="O23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E24" s="3">
         <v>9600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-11800</v>
-      </c>
-      <c r="H24" s="3">
-        <v>500</v>
       </c>
       <c r="I24" s="3">
         <v>500</v>
       </c>
       <c r="J24" s="3">
+        <v>500</v>
+      </c>
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
-      </c>
-      <c r="M24" s="3">
-        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1396,10 +1441,13 @@
         <v>100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,29 +1490,32 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E26" s="3">
         <v>36900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>36600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14400</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1480,35 +1531,38 @@
       <c r="N26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
+      <c r="O26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E27" s="3">
         <v>36900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>36600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14400</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1524,14 +1578,17 @@
       <c r="N27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
+      <c r="O27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1678,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1772,11 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1718,17 +1787,17 @@
         <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-400</v>
       </c>
       <c r="H32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1744,35 +1813,38 @@
       <c r="N32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P32" s="3">
         <v>130800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E33" s="3">
         <v>36900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>36600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14400</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1788,14 +1860,17 @@
       <c r="N33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
+      <c r="O33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,29 +1913,32 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E35" s="3">
         <v>36900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>36600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14400</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>5</v>
       </c>
@@ -1876,63 +1954,69 @@
       <c r="N35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
+      <c r="O35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,32 +2052,33 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>145200</v>
+      </c>
+      <c r="E41" s="3">
         <v>145700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>144600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>148800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>123800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>149200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>132900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2011,8 +2097,11 @@
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,32 +2144,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2099,32 +2191,35 @@
       <c r="P43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>286400</v>
+      </c>
+      <c r="E44" s="3">
         <v>292600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>272500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>246500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>208300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>170600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>136100</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2143,32 +2238,35 @@
       <c r="P44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>44700</v>
+      </c>
+      <c r="E45" s="3">
         <v>42200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>36500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>35600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>26300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21700</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2187,32 +2285,35 @@
       <c r="P45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>478100</v>
+      </c>
+      <c r="E46" s="3">
         <v>482300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>455100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>435100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>368000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>346400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>291300</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2231,8 +2332,11 @@
       <c r="P46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,32 +2379,35 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>425600</v>
+      </c>
+      <c r="E48" s="3">
         <v>392800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>387900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>342600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>179600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>137000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>123600</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2319,8 +2426,11 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2342,8 +2452,8 @@
       <c r="I49" s="3">
         <v>11000</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
+      <c r="J49" s="3">
+        <v>11000</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>5</v>
@@ -2363,8 +2473,11 @@
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,32 +2567,35 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E52" s="3">
         <v>21200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>23100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>28000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2495,8 +2614,11 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,32 +2661,35 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>931800</v>
+      </c>
+      <c r="E54" s="3">
         <v>907200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>877000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>814200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>586600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>495300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>426800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2583,8 +2708,11 @@
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,32 +2748,33 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>62600</v>
+      </c>
+      <c r="E57" s="3">
         <v>58500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>62300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>54200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>51400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>30400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30000</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2663,8 +2793,11 @@
       <c r="P57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2675,20 +2808,20 @@
         <v>500</v>
       </c>
       <c r="F58" s="3">
+        <v>500</v>
+      </c>
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2707,32 +2840,35 @@
       <c r="P58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>310600</v>
+      </c>
+      <c r="E59" s="3">
         <v>365000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>363800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>390500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>349800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>306400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>259000</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2751,32 +2887,35 @@
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>373800</v>
+      </c>
+      <c r="E60" s="3">
         <v>424000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>426700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>444900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>401200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>336700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>289200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>5</v>
       </c>
@@ -2795,32 +2934,35 @@
       <c r="P60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>51800</v>
+      </c>
+      <c r="E61" s="3">
         <v>51900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>52000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>50300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>50500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>50600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>47800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2839,32 +2981,35 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>296500</v>
+      </c>
+      <c r="E62" s="3">
         <v>270500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>274500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>232400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>65000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>127800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>124800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,32 +3169,35 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>722100</v>
+      </c>
+      <c r="E66" s="3">
         <v>746400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>753100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>727600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>516800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>515100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>461700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3059,8 +3216,11 @@
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,32 +3423,35 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-26900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-63900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-100500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-116600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-22700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-37000</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3297,8 +3470,11 @@
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,32 +3611,35 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>209700</v>
+      </c>
+      <c r="E76" s="3">
         <v>160800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>123900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>86500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>69800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-19800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-34900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3473,8 +3658,11 @@
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,78 +3705,84 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E81" s="3">
         <v>36900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>36600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14400</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>5</v>
       </c>
@@ -3604,14 +3798,17 @@
       <c r="N81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
+      <c r="O81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,38 +3825,39 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E83" s="3">
         <v>6300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>8300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>17000</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
@@ -3672,8 +3870,11 @@
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,38 +4105,41 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E89" s="3">
         <v>17100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>5900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>35200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>31800</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>150400</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>5</v>
       </c>
@@ -3936,8 +4152,11 @@
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,38 +4173,39 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-16600</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-10200</v>
       </c>
       <c r="F91" s="3">
         <v>-10200</v>
       </c>
       <c r="G91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="H91" s="3">
         <v>-18300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15800</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-13000</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
@@ -3998,8 +4218,11 @@
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,38 +4312,41 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-16600</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-10200</v>
       </c>
       <c r="F94" s="3">
         <v>-10200</v>
       </c>
       <c r="G94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-18300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15800</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-13000</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
@@ -4130,8 +4359,11 @@
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +4566,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,29 +4578,29 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-15900</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-98300</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
@@ -4368,8 +4613,11 @@
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,38 +4660,41 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>400</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>25100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-30600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16000</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>39100</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
@@ -4454,6 +4705,9 @@
         <v>5</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARHS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARHS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
   <si>
     <t>ARHS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,148 +665,155 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>304600</v>
+      </c>
+      <c r="E8" s="3">
         <v>356300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>320000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>306300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>246300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>238200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>203300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>184000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>171300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>162800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>120500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>103400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>120700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>133800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>176300</v>
+      </c>
+      <c r="E9" s="3">
         <v>198300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>183700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>173200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>148600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>141300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>118500</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
@@ -828,32 +835,35 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>128300</v>
+      </c>
+      <c r="E10" s="3">
         <v>158000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>136300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>133100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>97700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>96900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>84800</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,16 +1005,19 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>5</v>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>5</v>
@@ -1005,12 +1025,12 @@
       <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1023,8 +1043,8 @@
       <c r="M14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1052,8 +1075,8 @@
       <c r="G15" s="3">
         <v>500</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>5</v>
+      <c r="H15" s="3">
+        <v>500</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>5</v>
@@ -1070,8 +1093,8 @@
       <c r="M15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,32 +1124,33 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>259100</v>
+      </c>
+      <c r="E17" s="3">
         <v>291900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>272900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>256000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>223400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>242600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>186700</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1139,38 +1166,41 @@
       <c r="O17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
+      <c r="P17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>45500</v>
+      </c>
+      <c r="E18" s="3">
         <v>64400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>47100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>50300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1186,14 +1216,17 @@
       <c r="O18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="3">
         <v>133800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,32 +1244,33 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
       </c>
       <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1252,38 +1286,41 @@
       <c r="O20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-130800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-121600</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>54300</v>
+      </c>
+      <c r="E21" s="3">
         <v>71700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>53600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>56500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>24500</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1305,28 +1342,31 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1300</v>
       </c>
       <c r="G22" s="3">
         <v>1300</v>
       </c>
       <c r="H22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I22" s="3">
         <v>1400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1300</v>
       </c>
       <c r="J22" s="3">
         <v>1300</v>
@@ -1335,49 +1375,52 @@
         <v>1300</v>
       </c>
       <c r="L22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M22" s="3">
         <v>3200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3600</v>
-      </c>
-      <c r="O22" s="3">
-        <v>3000</v>
       </c>
       <c r="P22" s="3">
         <v>3000</v>
       </c>
       <c r="Q22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>46200</v>
+      </c>
+      <c r="E23" s="3">
         <v>65100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>46500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>49100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>21900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14900</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>5</v>
       </c>
@@ -1393,49 +1436,52 @@
       <c r="O23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
+      <c r="P23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E24" s="3">
         <v>18100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>9600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-11800</v>
-      </c>
-      <c r="I24" s="3">
-        <v>500</v>
       </c>
       <c r="J24" s="3">
         <v>500</v>
       </c>
       <c r="K24" s="3">
+        <v>500</v>
+      </c>
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>700</v>
-      </c>
-      <c r="N24" s="3">
-        <v>100</v>
       </c>
       <c r="O24" s="3">
         <v>100</v>
@@ -1444,10 +1490,13 @@
         <v>100</v>
       </c>
       <c r="Q24" s="3">
+        <v>100</v>
+      </c>
+      <c r="R24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,32 +1542,35 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E26" s="3">
         <v>47000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>36900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1534,38 +1586,41 @@
       <c r="O26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
+      <c r="P26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E27" s="3">
         <v>47000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>36900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>36600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1581,14 +1636,17 @@
       <c r="O27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
+      <c r="P27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,32 +1842,35 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
       </c>
       <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1816,38 +1886,41 @@
       <c r="O32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q32" s="3">
         <v>130800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E33" s="3">
         <v>47000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>36900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>36600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1863,14 +1936,17 @@
       <c r="O33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
+      <c r="P33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,32 +1992,35 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E35" s="3">
         <v>47000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>36900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>36600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>5</v>
       </c>
@@ -1957,66 +2036,72 @@
       <c r="O35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
+      <c r="P35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,35 +2139,36 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>144500</v>
+      </c>
+      <c r="E41" s="3">
         <v>145200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>145700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>144600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>148800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>123800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>149200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>132900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,35 +2237,38 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2194,35 +2287,38 @@
       <c r="Q43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>292100</v>
+      </c>
+      <c r="E44" s="3">
         <v>286400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>292600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>272500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>246500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>208300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>170600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>136100</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2241,35 +2337,38 @@
       <c r="Q44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>51200</v>
+      </c>
+      <c r="E45" s="3">
         <v>44700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>42200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>36500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>35600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>26300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21700</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2288,35 +2387,38 @@
       <c r="Q45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>489800</v>
+      </c>
+      <c r="E46" s="3">
         <v>478100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>482300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>455100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>435100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>368000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>346400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>291300</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,35 +2487,38 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>452600</v>
+      </c>
+      <c r="E48" s="3">
         <v>425600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>392800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>387900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>342600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>179600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>137000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>123600</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2455,8 +2566,8 @@
       <c r="J49" s="3">
         <v>11000</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
+      <c r="K49" s="3">
+        <v>11000</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,35 +2687,38 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E52" s="3">
         <v>17100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>21200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>23100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>25500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,35 +2787,38 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>965900</v>
+      </c>
+      <c r="E54" s="3">
         <v>931800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>907200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>877000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>814200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>586600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>495300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>426800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,35 +2879,36 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E57" s="3">
         <v>62600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>58500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>62300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>54200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>51400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>30400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>30000</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2811,20 +2945,20 @@
         <v>500</v>
       </c>
       <c r="G58" s="3">
+        <v>500</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2843,35 +2977,38 @@
       <c r="Q58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>293300</v>
+      </c>
+      <c r="E59" s="3">
         <v>310600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>365000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>363800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>390500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>349800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>306400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>259000</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>5</v>
       </c>
@@ -2890,35 +3027,38 @@
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>346800</v>
+      </c>
+      <c r="E60" s="3">
         <v>373800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>424000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>426700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>444900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>401200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>336700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>289200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>5</v>
       </c>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2946,26 +3089,26 @@
         <v>51800</v>
       </c>
       <c r="E61" s="3">
+        <v>51800</v>
+      </c>
+      <c r="F61" s="3">
         <v>51900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>52000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>50300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>50500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>50600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>47800</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2984,35 +3127,38 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>322200</v>
+      </c>
+      <c r="E62" s="3">
         <v>296500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>270500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>274500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>232400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>65000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>127800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>124800</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,35 +3327,38 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>720800</v>
+      </c>
+      <c r="E66" s="3">
         <v>722100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>746400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>753100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>727600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>516800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>515100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>461700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,35 +3597,38 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E72" s="3">
         <v>20100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-26900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-63900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-100500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-116600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-22700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-37000</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,35 +3797,38 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>245100</v>
+      </c>
+      <c r="E76" s="3">
         <v>209700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>160800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>123900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>86500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>69800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-19800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-34900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3661,8 +3847,11 @@
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,84 +3897,90 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E81" s="3">
         <v>47000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>36900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>36600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>5</v>
       </c>
@@ -3801,14 +3996,17 @@
       <c r="O81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
+      <c r="P81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,41 +4024,42 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E83" s="3">
         <v>6600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8300</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M83" s="3">
         <v>17000</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,41 +4322,44 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E89" s="3">
         <v>16200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>17100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>5900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>35200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>31800</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>150400</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>5</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,41 +4394,42 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-15700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-16600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-10200</v>
       </c>
       <c r="G91" s="3">
         <v>-10200</v>
       </c>
       <c r="H91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-18300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15800</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-13000</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,41 +4542,44 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-15700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-16600</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-10200</v>
       </c>
       <c r="G94" s="3">
         <v>-10200</v>
       </c>
       <c r="H94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-18300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15800</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-13000</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
@@ -4362,8 +4592,11 @@
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,41 +4812,44 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-15900</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-98300</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,41 +4912,44 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>25100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-30600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16000</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>39100</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>5</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>5</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARHS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARHS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="92">
   <si>
     <t>ARHS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,158 +665,165 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>312900</v>
+      </c>
+      <c r="E8" s="3">
         <v>304600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>356300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>320000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>306300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>246300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>238200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>203300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>184000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>171300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>162800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>120500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>103400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>120700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>133800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>172800</v>
+      </c>
+      <c r="E9" s="3">
         <v>176300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>198300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>183700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>173200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>148600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>141300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>118500</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
@@ -838,35 +845,38 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>140100</v>
+      </c>
+      <c r="E10" s="3">
         <v>128300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>158000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>136300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>133100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>97700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>96900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>84800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,19 +1025,22 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -1028,12 +1048,12 @@
       <c r="H14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1046,8 +1066,8 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1078,8 +1101,8 @@
       <c r="H15" s="3">
         <v>500</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>5</v>
+      <c r="I15" s="3">
+        <v>500</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>5</v>
@@ -1096,8 +1119,8 @@
       <c r="N15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,35 +1151,36 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>258900</v>
+      </c>
+      <c r="E17" s="3">
         <v>259100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>291900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>272900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>256000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>223400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>242600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>186700</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1169,41 +1196,44 @@
       <c r="P17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
+      <c r="Q17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E18" s="3">
         <v>45500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>64400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>47100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>50300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>22900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-4400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1219,14 +1249,17 @@
       <c r="P18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R18" s="3">
         <v>133800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,35 +1278,36 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
       </c>
       <c r="G20" s="3">
         <v>100</v>
       </c>
       <c r="H20" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
       </c>
       <c r="J20" s="3">
+        <v>400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1289,41 +1323,44 @@
       <c r="P20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R20" s="3">
         <v>-130800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-121600</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>63300</v>
+      </c>
+      <c r="E21" s="3">
         <v>54300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>71700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>53600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>56500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>29100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>2600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>24500</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,22 +1394,22 @@
         <v>1300</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1300</v>
       </c>
       <c r="H22" s="3">
         <v>1300</v>
       </c>
       <c r="I22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J22" s="3">
         <v>1400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1300</v>
       </c>
       <c r="K22" s="3">
         <v>1300</v>
@@ -1378,52 +1418,55 @@
         <v>1300</v>
       </c>
       <c r="M22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N22" s="3">
         <v>3200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3600</v>
-      </c>
-      <c r="P22" s="3">
-        <v>3000</v>
       </c>
       <c r="Q22" s="3">
         <v>3000</v>
       </c>
       <c r="R22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E23" s="3">
         <v>46200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>65100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>46500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>49100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>21900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>5</v>
       </c>
@@ -1439,52 +1482,55 @@
       <c r="P23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
+      <c r="Q23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E24" s="3">
         <v>12100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>9600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-11800</v>
-      </c>
-      <c r="J24" s="3">
-        <v>500</v>
       </c>
       <c r="K24" s="3">
         <v>500</v>
       </c>
       <c r="L24" s="3">
+        <v>500</v>
+      </c>
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>700</v>
-      </c>
-      <c r="O24" s="3">
-        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>100</v>
@@ -1493,10 +1539,13 @@
         <v>100</v>
       </c>
       <c r="R24" s="3">
+        <v>100</v>
+      </c>
+      <c r="S24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,35 +1594,38 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E26" s="3">
         <v>34100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>47000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>36600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1589,41 +1641,44 @@
       <c r="P26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
+      <c r="Q26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E27" s="3">
         <v>34100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>47000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>36900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1639,14 +1694,17 @@
       <c r="P27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
+      <c r="Q27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,35 +1912,38 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
       </c>
       <c r="G32" s="3">
         <v>-100</v>
       </c>
       <c r="H32" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
       </c>
       <c r="J32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1889,41 +1959,44 @@
       <c r="P32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R32" s="3">
         <v>130800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E33" s="3">
         <v>34100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>47000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>36900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>5</v>
       </c>
@@ -1939,14 +2012,17 @@
       <c r="P33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
+      <c r="Q33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,35 +2071,38 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E35" s="3">
         <v>34100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>47000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>36900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>5</v>
       </c>
@@ -2039,69 +2118,75 @@
       <c r="P35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
+      <c r="Q35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,38 +2226,39 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>176800</v>
+      </c>
+      <c r="E41" s="3">
         <v>144500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>145200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>145700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>144600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>148800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>123800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>149200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>132900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2190,8 +2277,11 @@
       <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,38 +2330,41 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2290,38 +2383,41 @@
       <c r="R43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>294900</v>
+      </c>
+      <c r="E44" s="3">
         <v>292100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>286400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>292600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>272500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>246500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>208300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>170600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>136100</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2340,38 +2436,41 @@
       <c r="R44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E45" s="3">
         <v>51200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>44700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>42200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>36500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>38100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>35600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>26300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>21700</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2390,38 +2489,41 @@
       <c r="R45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>521000</v>
+      </c>
+      <c r="E46" s="3">
         <v>489800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>478100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>482300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>455100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>435100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>368000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>346400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>291300</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2440,8 +2542,11 @@
       <c r="R46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,38 +2595,41 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>498700</v>
+      </c>
+      <c r="E48" s="3">
         <v>452600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>425600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>392800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>387900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>342600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>179600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>137000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>123600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2569,8 +2680,8 @@
       <c r="K49" s="3">
         <v>11000</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
+      <c r="L49" s="3">
+        <v>11000</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>5</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,38 +2807,41 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E52" s="3">
         <v>12500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>21200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>23100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>25500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>28000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,38 +2913,41 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1045300</v>
+      </c>
+      <c r="E54" s="3">
         <v>965900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>931800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>907200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>877000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>814200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>586600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>495300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>426800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2840,8 +2966,11 @@
       <c r="R54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,38 +3010,39 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>55100</v>
+      </c>
+      <c r="E57" s="3">
         <v>53100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>62600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>58500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>62300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>54200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>51400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>30400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30000</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>5</v>
       </c>
@@ -2930,13 +3061,16 @@
       <c r="R57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="E58" s="3">
         <v>500</v>
@@ -2948,20 +3082,20 @@
         <v>500</v>
       </c>
       <c r="H58" s="3">
+        <v>500</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>5</v>
       </c>
@@ -2980,38 +3114,41 @@
       <c r="R58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>288600</v>
+      </c>
+      <c r="E59" s="3">
         <v>293300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>310600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>365000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>363800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>390500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>349800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>306400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>259000</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3030,38 +3167,41 @@
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>344600</v>
+      </c>
+      <c r="E60" s="3">
         <v>346800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>373800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>424000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>426700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>444900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>401200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>336700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>289200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>5</v>
       </c>
@@ -3080,38 +3220,41 @@
       <c r="R60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>51800</v>
+        <v>53900</v>
       </c>
       <c r="E61" s="3">
         <v>51800</v>
       </c>
       <c r="F61" s="3">
+        <v>51800</v>
+      </c>
+      <c r="G61" s="3">
         <v>51900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>52000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>50300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>50500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>50600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>47800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3130,38 +3273,41 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>359200</v>
+      </c>
+      <c r="E62" s="3">
         <v>322200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>296500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>270500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>274500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>232400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>65000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>127800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>124800</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,38 +3485,41 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>757700</v>
+      </c>
+      <c r="E66" s="3">
         <v>720800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>722100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>746400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>753100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>727600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>516800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>515100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>461700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3380,8 +3538,11 @@
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,38 +3771,41 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>94300</v>
+      </c>
+      <c r="E72" s="3">
         <v>54200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>20100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-26900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-63900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-100500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-116600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-22700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-37000</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,38 +3983,41 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>287600</v>
+      </c>
+      <c r="E76" s="3">
         <v>245100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>209700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>160800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>123900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>86500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>69800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-19800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-34900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>5</v>
       </c>
@@ -3850,8 +4036,11 @@
       <c r="R76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,90 +4089,96 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>40200</v>
+      </c>
+      <c r="E81" s="3">
         <v>34100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>47000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>36900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>5</v>
       </c>
@@ -3999,14 +4194,17 @@
       <c r="P81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
+      <c r="Q81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,44 +4223,45 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E83" s="3">
         <v>6700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N83" s="3">
         <v>17000</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,44 +4539,47 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>54100</v>
+      </c>
+      <c r="E89" s="3">
         <v>7700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>16200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>17100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>35200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>31800</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>150400</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>5</v>
       </c>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,44 +4615,45 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-15700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-16600</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-10200</v>
       </c>
       <c r="H91" s="3">
         <v>-10200</v>
       </c>
       <c r="I91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="J91" s="3">
         <v>-18300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-13000</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,44 +4772,47 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-15700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-16600</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-10200</v>
       </c>
       <c r="H94" s="3">
         <v>-10200</v>
       </c>
       <c r="I94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-18300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-13000</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,44 +5058,47 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-15900</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-98300</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
@@ -4865,8 +5111,11 @@
       <c r="R100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,44 +5164,47 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>25100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-30600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16000</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>39100</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>5</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>5</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ARHS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ARHS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="92">
   <si>
     <t>ARHS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,175 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>326200</v>
+      </c>
+      <c r="E8" s="3">
         <v>312900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>304600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>356300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>320000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>306300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>246300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>238200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>203300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>184000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>171300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>162800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>120500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>103400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>120700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>133800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>195400</v>
+      </c>
+      <c r="E9" s="3">
         <v>172800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>176300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>198300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>183700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>173200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>148600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>141300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>118500</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
@@ -848,38 +855,41 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>130800</v>
+      </c>
+      <c r="E10" s="3">
         <v>140100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>128300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>158000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>136300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>133100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>97700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>96900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>84800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,11 +1059,11 @@
       <c r="E14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
+      <c r="F14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>5</v>
@@ -1051,12 +1071,12 @@
       <c r="I14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
       </c>
@@ -1069,8 +1089,8 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1081,13 +1101,16 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="E15" s="3">
         <v>500</v>
@@ -1104,8 +1127,8 @@
       <c r="I15" s="3">
         <v>500</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>5</v>
+      <c r="J15" s="3">
+        <v>500</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>5</v>
@@ -1122,8 +1145,8 @@
       <c r="O15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,38 +1178,39 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>302300</v>
+      </c>
+      <c r="E17" s="3">
         <v>258900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>259100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>291900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>272900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>256000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>223400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>242600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>186700</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>5</v>
       </c>
@@ -1199,44 +1226,47 @@
       <c r="Q17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
+      <c r="R17" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E18" s="3">
         <v>54000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>45500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>64400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>47100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>50300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>5</v>
       </c>
@@ -1252,14 +1282,17 @@
       <c r="Q18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S18" s="3">
         <v>133800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>124800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,38 +1312,39 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>400</v>
       </c>
       <c r="K20" s="3">
+        <v>400</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>5</v>
       </c>
@@ -1326,44 +1360,47 @@
       <c r="Q20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S20" s="3">
         <v>-130800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-121600</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>33800</v>
+      </c>
+      <c r="E21" s="3">
         <v>63300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>54300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>71700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>53600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>56500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>29100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>2600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>24500</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
@@ -1385,34 +1422,37 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="3">
         <v>1300</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1300</v>
       </c>
       <c r="I22" s="3">
         <v>1300</v>
       </c>
       <c r="J22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K22" s="3">
         <v>1400</v>
-      </c>
-      <c r="K22" s="3">
-        <v>1300</v>
       </c>
       <c r="L22" s="3">
         <v>1300</v>
@@ -1421,55 +1461,58 @@
         <v>1300</v>
       </c>
       <c r="N22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O22" s="3">
         <v>3200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>3000</v>
       </c>
       <c r="R22" s="3">
         <v>3000</v>
       </c>
       <c r="S22" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T22" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E23" s="3">
         <v>54600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>46200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>65100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>46500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>49100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>21900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>5</v>
       </c>
@@ -1485,55 +1528,58 @@
       <c r="Q23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
+      <c r="R23" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E24" s="3">
         <v>14400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>9600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-11800</v>
-      </c>
-      <c r="K24" s="3">
-        <v>500</v>
       </c>
       <c r="L24" s="3">
         <v>500</v>
       </c>
       <c r="M24" s="3">
+        <v>500</v>
+      </c>
+      <c r="N24" s="3">
         <v>700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>700</v>
-      </c>
-      <c r="P24" s="3">
-        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>100</v>
@@ -1542,10 +1588,13 @@
         <v>100</v>
       </c>
       <c r="S24" s="3">
+        <v>100</v>
+      </c>
+      <c r="T24" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,38 +1646,41 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E26" s="3">
         <v>40200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>34100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>47000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>36900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>36600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>5</v>
       </c>
@@ -1644,44 +1696,47 @@
       <c r="Q26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
+      <c r="R26" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E27" s="3">
         <v>40200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>34100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>47000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>36600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-9500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>5</v>
       </c>
@@ -1697,14 +1752,17 @@
       <c r="Q27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
+      <c r="R27" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,38 +1982,41 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-400</v>
       </c>
       <c r="K32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>5</v>
       </c>
@@ -1962,44 +2032,47 @@
       <c r="Q32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S32" s="3">
         <v>130800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>121600</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E33" s="3">
         <v>40200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>34100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>47000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>36600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-9500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>5</v>
       </c>
@@ -2015,14 +2088,17 @@
       <c r="Q33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
+      <c r="R33" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,38 +2150,41 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E35" s="3">
         <v>40200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>34100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>47000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>36600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-9500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>5</v>
       </c>
@@ -2121,72 +2200,78 @@
       <c r="Q35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
+      <c r="R35" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,41 +2313,42 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>236900</v>
+      </c>
+      <c r="E41" s="3">
         <v>176800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>144500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>145200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>145700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>144600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>148800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>123800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>149200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>132900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>5</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,41 +2423,44 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>5</v>
       </c>
@@ -2386,41 +2479,44 @@
       <c r="S43" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>269000</v>
+      </c>
+      <c r="E44" s="3">
         <v>294900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>292100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>286400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>292600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>272500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>246500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>208300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>170600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>136100</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>5</v>
       </c>
@@ -2439,41 +2535,44 @@
       <c r="S44" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E45" s="3">
         <v>47700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>51200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>44700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>42200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>36500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>38100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>35600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>26300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>21700</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>5</v>
       </c>
@@ -2492,41 +2591,44 @@
       <c r="S45" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>574500</v>
+      </c>
+      <c r="E46" s="3">
         <v>521000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>489800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>478100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>482300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>455100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>435100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>368000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>346400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>291300</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>5</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,41 +2703,44 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>510500</v>
+      </c>
+      <c r="E48" s="3">
         <v>498700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>452600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>425600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>392800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>387900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>342600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>179600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>137000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>123600</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2683,8 +2794,8 @@
       <c r="L49" s="3">
         <v>11000</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
+      <c r="M49" s="3">
+        <v>11000</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>5</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,41 +2927,44 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E52" s="3">
         <v>14600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>21200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>23100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>25500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>28000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,41 +3039,44 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1115600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1045300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>965900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>931800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>907200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>877000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>814200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>586600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>495300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>426800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>5</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,41 +3141,42 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E57" s="3">
         <v>55100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>53100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>62600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>58500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>62300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>54200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>51400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30000</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>5</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,7 +3207,7 @@
         <v>900</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
@@ -3085,20 +3219,20 @@
         <v>500</v>
       </c>
       <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>5</v>
       </c>
@@ -3117,41 +3251,44 @@
       <c r="S58" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>327100</v>
+      </c>
+      <c r="E59" s="3">
         <v>288600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>293300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>310600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>365000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>363800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>390500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>349800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>306400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>259000</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
@@ -3170,41 +3307,44 @@
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>386200</v>
+      </c>
+      <c r="E60" s="3">
         <v>344600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>346800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>373800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>424000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>426700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>444900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>401200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>336700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>289200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>5</v>
       </c>
@@ -3223,41 +3363,44 @@
       <c r="S60" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E61" s="3">
         <v>53900</v>
-      </c>
-      <c r="E61" s="3">
-        <v>51800</v>
       </c>
       <c r="F61" s="3">
         <v>51800</v>
       </c>
       <c r="G61" s="3">
+        <v>51800</v>
+      </c>
+      <c r="H61" s="3">
         <v>51900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>52000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>50300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>50500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>50600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>47800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3276,41 +3419,44 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>366900</v>
+      </c>
+      <c r="E62" s="3">
         <v>359200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>322200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>296500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>270500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>274500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>232400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>65000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>127800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>124800</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,41 +3643,44 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>807100</v>
+      </c>
+      <c r="E66" s="3">
         <v>757700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>720800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>722100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>746400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>753100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>727600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>516800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>515100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>461700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>5</v>
       </c>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,41 +3945,44 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>114100</v>
+      </c>
+      <c r="E72" s="3">
         <v>94300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>54200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>20100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-26900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-63900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-100500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-116600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-37000</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>5</v>
       </c>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,41 +4169,44 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>308500</v>
+      </c>
+      <c r="E76" s="3">
         <v>287600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>245100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>209700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>160800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>123900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>86500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>69800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-19800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-34900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>5</v>
       </c>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,96 +4281,102 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E81" s="3">
         <v>40200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>34100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>47000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>36600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-9500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>5</v>
       </c>
@@ -4197,14 +4392,17 @@
       <c r="Q81" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
+      <c r="R81" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,47 +4422,48 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E83" s="3">
         <v>7400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>6700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O83" s="3">
         <v>17000</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,47 +4756,50 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>69600</v>
+      </c>
+      <c r="E89" s="3">
         <v>54100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>7700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>17100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>35200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>31800</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>150400</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,47 +4836,48 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-16600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-10200</v>
       </c>
       <c r="I91" s="3">
         <v>-10200</v>
       </c>
       <c r="J91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-18300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-13000</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,47 +5002,50 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-16600</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-10200</v>
       </c>
       <c r="I94" s="3">
         <v>-10200</v>
       </c>
       <c r="J94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-18300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-13000</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,47 +5304,50 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-15900</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-98300</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,47 +5416,50 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>59000</v>
+      </c>
+      <c r="E102" s="3">
         <v>29700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-4400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>25100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-30600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16000</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>39100</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>5</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>5</v>
       </c>
     </row>
